--- a/Test AutoCombat Idea.xlsx
+++ b/Test AutoCombat Idea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Project-Paleo-Maiden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB06D7D0-FA17-4DC6-8597-6F5EFCDA95DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC5E3CD-7D2B-41C8-AEA0-80C977C92F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combat System Notes (Cam) " sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="back up" sheetId="4" r:id="rId3"/>
     <sheet name="Player actions on BG analysis" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Dino Exp MU" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="266">
   <si>
     <t>time</t>
   </si>
@@ -755,13 +757,91 @@
   </si>
   <si>
     <t>if win clash, opponent knocked back and gets stun until they get hit again</t>
+  </si>
+  <si>
+    <t>trex O</t>
+  </si>
+  <si>
+    <t>trex B</t>
+  </si>
+  <si>
+    <t>trex D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carno O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carno B </t>
+  </si>
+  <si>
+    <t>Carno D</t>
+  </si>
+  <si>
+    <t>Fukui O</t>
+  </si>
+  <si>
+    <t>Fukui B</t>
+  </si>
+  <si>
+    <t>Fukui D</t>
+  </si>
+  <si>
+    <t>Armaga O</t>
+  </si>
+  <si>
+    <t>Armaga B</t>
+  </si>
+  <si>
+    <t>Armaga D</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>most ideal strat</t>
+  </si>
+  <si>
+    <t>eh strat</t>
+  </si>
+  <si>
+    <t>worst strat</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>Expected MU when they fight only with basic attk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -840,6 +920,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -864,12 +959,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -879,7 +1054,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -903,6 +1078,32 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1126,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5408,7 +5609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C803E-AD96-4800-AFEB-90AC48E17C07}">
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -14407,7 +14608,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14504,4 +14705,602 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEDD860-39C7-451E-97F6-153E1BAFE41A}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C17" s="40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:M4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>